--- a/data/trans_bre/IP16A01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A01-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -725,17 +725,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,84</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,87</t>
+          <t>12,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>-19,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -745,17 +745,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>-1,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>-29,1%</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 37,44</t>
+          <t>-17,25; 13,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 31,59</t>
+          <t>-5,4; 29,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 25,16</t>
+          <t>-35,25; -3,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,24 +793,24 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 109,61</t>
+          <t>-24,94; 24,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 99,36</t>
+          <t>-8,98; 72,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 53,78</t>
+          <t>-47,95; -5,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>19,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,87</t>
+          <t>13,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-19,09</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>42,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-29,1%</t>
+          <t>12,81%</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 13,98</t>
+          <t>2,06; 37,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 29,7</t>
+          <t>-6,73; 31,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-35,25; -3,17</t>
+          <t>-9,52; 25,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 24,47</t>
+          <t>3,85; 109,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 72,98</t>
+          <t>-11,91; 99,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,95; -5,52</t>
+          <t>-16,38; 53,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A01-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -625,17 +625,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,66</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,17 +645,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-13,35%</t>
+          <t>-10,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>-7,7%</t>
         </is>
       </c>
     </row>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 15,66</t>
+          <t>-13,02; 20,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 6,77</t>
+          <t>-26,82; 14,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 17,59</t>
+          <t>-30,49; 16,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,24 +693,24 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 25,05</t>
+          <t>-17,12; 35,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-32,03; 10,49</t>
+          <t>-35,36; 24,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 30,37</t>
+          <t>-39,92; 26,74</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -725,17 +725,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,87</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,09</t>
+          <t>-16,19</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -745,17 +745,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>-4,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-29,1%</t>
+          <t>-25,33%</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 13,98</t>
+          <t>-19,3; 9,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 29,7</t>
+          <t>-12,54; 20,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,25; -3,17</t>
+          <t>-32,27; 2,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,24 +793,24 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 24,47</t>
+          <t>-24,67; 14,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 72,98</t>
+          <t>-17,55; 41,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,95; -5,52</t>
+          <t>-45,47; 5,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,84</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,87</t>
+          <t>26,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>-9,62%</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 37,44</t>
+          <t>-20,18; 23,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 31,59</t>
+          <t>6,86; 44,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 25,16</t>
+          <t>-22,96; 14,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,24 +893,24 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 109,61</t>
+          <t>-34,59; 67,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 99,36</t>
+          <t>13,79; 164,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 53,78</t>
+          <t>-34,75; 28,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>32,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>84,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>-12,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,03%</t>
+          <t>16,32%</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 14,36</t>
+          <t>8,82; 52,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 17,0</t>
+          <t>-30,83; 19,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 7,97</t>
+          <t>-9,05; 32,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,23 +993,131 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 25,25</t>
+          <t>17,46; 208,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 33,29</t>
+          <t>-51,39; 59,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 14,84</t>
+          <t>-14,52; 79,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,83</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,22</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-3,57</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11,28%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-6,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 13,85</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,31; 16,2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-13,3; 8,24</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 24,06</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,8; 32,92</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-20,82; 15,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP16A01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A01-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 20,97</t>
+          <t>-12,16; 19,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 14,63</t>
+          <t>-28,19; 13,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 16,26</t>
+          <t>-27,82; 17,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 35,74</t>
+          <t>-15,66; 32,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,36; 24,96</t>
+          <t>-34,33; 22,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 26,74</t>
+          <t>-35,67; 29,19</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 9,38</t>
+          <t>-16,5; 10,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 20,93</t>
+          <t>-12,62; 20,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 2,3</t>
+          <t>-30,88; 1,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 14,42</t>
+          <t>-21,19; 17,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 41,36</t>
+          <t>-17,12; 38,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 5,12</t>
+          <t>-45,44; 1,49</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 23,79</t>
+          <t>-20,06; 24,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,86; 44,86</t>
+          <t>6,11; 44,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 14,08</t>
+          <t>-24,26; 13,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 67,98</t>
+          <t>-34,59; 66,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,79; 164,48</t>
+          <t>10,88; 162,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 28,23</t>
+          <t>-36,56; 27,62</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,82; 52,56</t>
+          <t>10,91; 52,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 19,79</t>
+          <t>-30,2; 18,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 32,19</t>
+          <t>-11,01; 28,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 208,1</t>
+          <t>17,96; 209,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,39; 59,27</t>
+          <t>-51,83; 59,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 79,6</t>
+          <t>-19,24; 70,87</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 13,85</t>
+          <t>-5,14; 14,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 16,2</t>
+          <t>-3,31; 16,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 8,24</t>
+          <t>-14,16; 7,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 24,06</t>
+          <t>-7,93; 24,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 32,92</t>
+          <t>-5,43; 33,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 15,5</t>
+          <t>-22,64; 12,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A01-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,4</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,7%</t>
+          <t>-8,29%</t>
         </is>
       </c>
     </row>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 19,78</t>
+          <t>-13,24; 20,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 13,0</t>
+          <t>-28,82; 12,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 17,16</t>
+          <t>-30,58; 16,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 32,93</t>
+          <t>-16,8; 35,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 22,45</t>
+          <t>-36,23; 21,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 29,19</t>
+          <t>-39,74; 26,52</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,19</t>
+          <t>-16,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-25,33%</t>
+          <t>-26,78%</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 10,82</t>
+          <t>-18,31; 10,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 20,96</t>
+          <t>-11,74; 21,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 1,09</t>
+          <t>-35,95; 1,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 17,22</t>
+          <t>-22,71; 15,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 38,86</t>
+          <t>-16,5; 41,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 1,49</t>
+          <t>-50,63; 1,2</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,62</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,62%</t>
+          <t>-9,82%</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 24,17</t>
+          <t>-19,29; 25,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 44,3</t>
+          <t>6,32; 45,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 13,81</t>
+          <t>-25,09; 12,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 66,42</t>
+          <t>-33,51; 74,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,88; 162,63</t>
+          <t>14,13; 163,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 27,62</t>
+          <t>-36,64; 25,14</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>14,92</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>28,36%</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,91; 52,41</t>
+          <t>6,05; 53,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 18,2</t>
+          <t>-30,55; 19,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 28,41</t>
+          <t>-8,2; 43,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 209,21</t>
+          <t>13,05; 214,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,83; 59,21</t>
+          <t>-51,39; 51,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 70,87</t>
+          <t>-15,42; 103,88</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,03%</t>
+          <t>-0,85%</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 14,4</t>
+          <t>-4,42; 14,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 16,52</t>
+          <t>-3,41; 17,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 7,35</t>
+          <t>-12,31; 18,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 24,76</t>
+          <t>-6,48; 25,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 33,61</t>
+          <t>-5,76; 33,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 12,95</t>
+          <t>-19,81; 34,17</t>
         </is>
       </c>
     </row>
